--- a/Trigger Generation (Not Inc P2 Trial Trigs)/Trigger Config.xlsx
+++ b/Trigger Generation (Not Inc P2 Trial Trigs)/Trigger Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjwin\OneDrive - Queen Mary, University of London\Documents\Music Interestingness in the Brain\Par 22-9-23\Trigger Generation (Not Inc P2 Trial Trigs)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F6EEDFB-E90C-4A0C-81B9-A58798073DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488534E0-CCDF-42EC-8779-06BEBE97D7A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7E7BB4F4-9053-422F-95B5-0ADBAD2C553C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="236">
   <si>
     <t>Set01-Vibr.wav start</t>
   </si>
@@ -75,24 +75,6 @@
     <t>Set02-Keyb.wav end</t>
   </si>
   <si>
-    <t>P1 start</t>
-  </si>
-  <si>
-    <t>P1 end</t>
-  </si>
-  <si>
-    <t>P2 start</t>
-  </si>
-  <si>
-    <t>P2 end</t>
-  </si>
-  <si>
-    <t>P3 start</t>
-  </si>
-  <si>
-    <t>P3 end</t>
-  </si>
-  <si>
     <t>Trig</t>
   </si>
   <si>
@@ -276,222 +258,6 @@
     <t>Set03-Keyb.wav end</t>
   </si>
   <si>
-    <t>Set01-Oddball Test Mix - Vibr Attended.wav start</t>
-  </si>
-  <si>
-    <t>Set01-Oddball Test Mix - Vibr Attended.wav end</t>
-  </si>
-  <si>
-    <t>Set02-Oddball Test Mix - Vibr Attended.wav start</t>
-  </si>
-  <si>
-    <t>Set02-Oddball Test Mix - Vibr Attended.wav end</t>
-  </si>
-  <si>
-    <t>Set03-Oddball Test Mix - Vibr Attended.wav start</t>
-  </si>
-  <si>
-    <t>Set03-Oddball Test Mix - Vibr Attended.wav end</t>
-  </si>
-  <si>
-    <t>Set04-Oddball Test Mix - Vibr Attended.wav start</t>
-  </si>
-  <si>
-    <t>Set04-Oddball Test Mix - Vibr Attended.wav end</t>
-  </si>
-  <si>
-    <t>Set05-Oddball Test Mix - Vibr Attended.wav start</t>
-  </si>
-  <si>
-    <t>Set05-Oddball Test Mix - Vibr Attended.wav end</t>
-  </si>
-  <si>
-    <t>Set06-Oddball Test Mix - Vibr Attended.wav start</t>
-  </si>
-  <si>
-    <t>Set06-Oddball Test Mix - Vibr Attended.wav end</t>
-  </si>
-  <si>
-    <t>Set07-Oddball Test Mix - Vibr Attended.wav start</t>
-  </si>
-  <si>
-    <t>Set07-Oddball Test Mix - Vibr Attended.wav end</t>
-  </si>
-  <si>
-    <t>Set08-Oddball Test Mix - Vibr Attended.wav start</t>
-  </si>
-  <si>
-    <t>Set08-Oddball Test Mix - Vibr Attended.wav end</t>
-  </si>
-  <si>
-    <t>Set09-Oddball Test Mix - Vibr Attended.wav start</t>
-  </si>
-  <si>
-    <t>Set09-Oddball Test Mix - Vibr Attended.wav end</t>
-  </si>
-  <si>
-    <t>Set10-Oddball Test Mix - Vibr Attended.wav start</t>
-  </si>
-  <si>
-    <t>Set10-Oddball Test Mix - Vibr Attended.wav end</t>
-  </si>
-  <si>
-    <t>Set11-Oddball Test Mix - Vibr Attended.wav start</t>
-  </si>
-  <si>
-    <t>Set11-Oddball Test Mix - Vibr Attended.wav end</t>
-  </si>
-  <si>
-    <t>Set12-Oddball Test Mix - Vibr Attended.wav start</t>
-  </si>
-  <si>
-    <t>Set12-Oddball Test Mix - Vibr Attended.wav end</t>
-  </si>
-  <si>
-    <t>Set01-Oddball Test Mix - Keyb Attended.wav start</t>
-  </si>
-  <si>
-    <t>Set01-Oddball Test Mix - Keyb Attended.wav end</t>
-  </si>
-  <si>
-    <t>Set02-Oddball Test Mix - Keyb Attended.wav start</t>
-  </si>
-  <si>
-    <t>Set02-Oddball Test Mix - Keyb Attended.wav end</t>
-  </si>
-  <si>
-    <t>Set03-Oddball Test Mix - Keyb Attended.wav start</t>
-  </si>
-  <si>
-    <t>Set03-Oddball Test Mix - Keyb Attended.wav end</t>
-  </si>
-  <si>
-    <t>Set04-Oddball Test Mix - Keyb Attended.wav start</t>
-  </si>
-  <si>
-    <t>Set04-Oddball Test Mix - Keyb Attended.wav end</t>
-  </si>
-  <si>
-    <t>Set05-Oddball Test Mix - Keyb Attended.wav start</t>
-  </si>
-  <si>
-    <t>Set05-Oddball Test Mix - Keyb Attended.wav end</t>
-  </si>
-  <si>
-    <t>Set06-Oddball Test Mix - Keyb Attended.wav start</t>
-  </si>
-  <si>
-    <t>Set06-Oddball Test Mix - Keyb Attended.wav end</t>
-  </si>
-  <si>
-    <t>Set07-Oddball Test Mix - Keyb Attended.wav start</t>
-  </si>
-  <si>
-    <t>Set07-Oddball Test Mix - Keyb Attended.wav end</t>
-  </si>
-  <si>
-    <t>Set08-Oddball Test Mix - Keyb Attended.wav start</t>
-  </si>
-  <si>
-    <t>Set08-Oddball Test Mix - Keyb Attended.wav end</t>
-  </si>
-  <si>
-    <t>Set09-Oddball Test Mix - Keyb Attended.wav start</t>
-  </si>
-  <si>
-    <t>Set09-Oddball Test Mix - Keyb Attended.wav end</t>
-  </si>
-  <si>
-    <t>Set10-Oddball Test Mix - Keyb Attended.wav start</t>
-  </si>
-  <si>
-    <t>Set10-Oddball Test Mix - Keyb Attended.wav end</t>
-  </si>
-  <si>
-    <t>Set11-Oddball Test Mix - Keyb Attended.wav start</t>
-  </si>
-  <si>
-    <t>Set11-Oddball Test Mix - Keyb Attended.wav end</t>
-  </si>
-  <si>
-    <t>Set12-Oddball Test Mix - Keyb Attended.wav start</t>
-  </si>
-  <si>
-    <t>Set12-Oddball Test Mix - Keyb Attended.wav end</t>
-  </si>
-  <si>
-    <t>Set01-Oddball Test Mix - Harm Attended.wav start</t>
-  </si>
-  <si>
-    <t>Set01-Oddball Test Mix - Harm Attended.wav end</t>
-  </si>
-  <si>
-    <t>Set02-Oddball Test Mix - Harm Attended.wav start</t>
-  </si>
-  <si>
-    <t>Set02-Oddball Test Mix - Harm Attended.wav end</t>
-  </si>
-  <si>
-    <t>Set03-Oddball Test Mix - Harm Attended.wav start</t>
-  </si>
-  <si>
-    <t>Set03-Oddball Test Mix - Harm Attended.wav end</t>
-  </si>
-  <si>
-    <t>Set04-Oddball Test Mix - Harm Attended.wav start</t>
-  </si>
-  <si>
-    <t>Set04-Oddball Test Mix - Harm Attended.wav end</t>
-  </si>
-  <si>
-    <t>Set05-Oddball Test Mix - Harm Attended.wav start</t>
-  </si>
-  <si>
-    <t>Set05-Oddball Test Mix - Harm Attended.wav end</t>
-  </si>
-  <si>
-    <t>Set06-Oddball Test Mix - Harm Attended.wav start</t>
-  </si>
-  <si>
-    <t>Set06-Oddball Test Mix - Harm Attended.wav end</t>
-  </si>
-  <si>
-    <t>Set07-Oddball Test Mix - Harm Attended.wav start</t>
-  </si>
-  <si>
-    <t>Set07-Oddball Test Mix - Harm Attended.wav end</t>
-  </si>
-  <si>
-    <t>Set08-Oddball Test Mix - Harm Attended.wav start</t>
-  </si>
-  <si>
-    <t>Set08-Oddball Test Mix - Harm Attended.wav end</t>
-  </si>
-  <si>
-    <t>Set09-Oddball Test Mix - Harm Attended.wav start</t>
-  </si>
-  <si>
-    <t>Set09-Oddball Test Mix - Harm Attended.wav end</t>
-  </si>
-  <si>
-    <t>Set10-Oddball Test Mix - Harm Attended.wav start</t>
-  </si>
-  <si>
-    <t>Set10-Oddball Test Mix - Harm Attended.wav end</t>
-  </si>
-  <si>
-    <t>Set11-Oddball Test Mix - Harm Attended.wav start</t>
-  </si>
-  <si>
-    <t>Set11-Oddball Test Mix - Harm Attended.wav end</t>
-  </si>
-  <si>
-    <t>Set12-Oddball Test Mix - Harm Attended.wav start</t>
-  </si>
-  <si>
-    <t>Set12-Oddball Test Mix - Harm Attended.wav end</t>
-  </si>
-  <si>
     <t>Location (SS Pieces)</t>
   </si>
   <si>
@@ -507,18 +273,9 @@
     <t>Harm oddball - Harm attended</t>
   </si>
   <si>
-    <t>Harm oddball - Harm unattended</t>
-  </si>
-  <si>
     <t>Keyb oddball - Keyb attended</t>
   </si>
   <si>
-    <t>Keyb oddball - Keyb unattended</t>
-  </si>
-  <si>
-    <t>Vibr oddball - Vibr unattended</t>
-  </si>
-  <si>
     <t>Vibr oddball - Vibr attended</t>
   </si>
   <si>
@@ -736,6 +493,258 @@
   </si>
   <si>
     <t>Set12-Oddball Test Mix-Keyb Attended.wav end</t>
+  </si>
+  <si>
+    <t>P1_start</t>
+  </si>
+  <si>
+    <t>P1_end</t>
+  </si>
+  <si>
+    <t>P2_start</t>
+  </si>
+  <si>
+    <t>P2_end</t>
+  </si>
+  <si>
+    <t>P3_start</t>
+  </si>
+  <si>
+    <t>P3_end</t>
+  </si>
+  <si>
+    <t>Set01-Vibr with Gain Applied.wav start</t>
+  </si>
+  <si>
+    <t>Set01-Vibr with Gain Applied.wav end</t>
+  </si>
+  <si>
+    <t>Set01-Harm with Gain Applied.wav start</t>
+  </si>
+  <si>
+    <t>Set01-Harm with Gain Applied.wav end</t>
+  </si>
+  <si>
+    <t>Set01-Keyb with Gain Applied.wav start</t>
+  </si>
+  <si>
+    <t>Set01-Keyb with Gain Applied.wav end</t>
+  </si>
+  <si>
+    <t>Set02-Vibr with Gain Applied.wav start</t>
+  </si>
+  <si>
+    <t>Set02-Vibr with Gain Applied.wav end</t>
+  </si>
+  <si>
+    <t>Set02-Harm with Gain Applied.wav start</t>
+  </si>
+  <si>
+    <t>Set02-Harm with Gain Applied.wav end</t>
+  </si>
+  <si>
+    <t>Set02-Keyb with Gain Applied.wav start</t>
+  </si>
+  <si>
+    <t>Set02-Keyb with Gain Applied.wav end</t>
+  </si>
+  <si>
+    <t>Set03-Vibr with Gain Applied.wav start</t>
+  </si>
+  <si>
+    <t>Set03-Vibr with Gain Applied.wav end</t>
+  </si>
+  <si>
+    <t>Set03-Harm with Gain Applied.wav start</t>
+  </si>
+  <si>
+    <t>Set03-Harm with Gain Applied.wav end</t>
+  </si>
+  <si>
+    <t>Set03-Keyb with Gain Applied.wav start</t>
+  </si>
+  <si>
+    <t>Set03-Keyb with Gain Applied.wav end</t>
+  </si>
+  <si>
+    <t>Set04-Vibr with Gain Applied.wav start</t>
+  </si>
+  <si>
+    <t>Set04-Vibr with Gain Applied.wav end</t>
+  </si>
+  <si>
+    <t>Set04-Harm with Gain Applied.wav start</t>
+  </si>
+  <si>
+    <t>Set04-Harm with Gain Applied.wav end</t>
+  </si>
+  <si>
+    <t>Set04-Keyb with Gain Applied.wav start</t>
+  </si>
+  <si>
+    <t>Set04-Keyb with Gain Applied.wav end</t>
+  </si>
+  <si>
+    <t>Set05-Vibr with Gain Applied.wav start</t>
+  </si>
+  <si>
+    <t>Set05-Vibr with Gain Applied.wav end</t>
+  </si>
+  <si>
+    <t>Set05-Harm with Gain Applied.wav start</t>
+  </si>
+  <si>
+    <t>Set05-Harm with Gain Applied.wav end</t>
+  </si>
+  <si>
+    <t>Set05-Keyb with Gain Applied.wav start</t>
+  </si>
+  <si>
+    <t>Set05-Keyb with Gain Applied.wav end</t>
+  </si>
+  <si>
+    <t>Set06-Vibr with Gain Applied.wav start</t>
+  </si>
+  <si>
+    <t>Set06-Vibr with Gain Applied.wav end</t>
+  </si>
+  <si>
+    <t>Set06-Harm with Gain Applied.wav start</t>
+  </si>
+  <si>
+    <t>Set06-Harm with Gain Applied.wav end</t>
+  </si>
+  <si>
+    <t>Set06-Keyb with Gain Applied.wav start</t>
+  </si>
+  <si>
+    <t>Set06-Keyb with Gain Applied.wav end</t>
+  </si>
+  <si>
+    <t>Set07-Vibr with Gain Applied.wav start</t>
+  </si>
+  <si>
+    <t>Set07-Vibr with Gain Applied.wav end</t>
+  </si>
+  <si>
+    <t>Set07-Harm with Gain Applied.wav start</t>
+  </si>
+  <si>
+    <t>Set07-Harm with Gain Applied.wav end</t>
+  </si>
+  <si>
+    <t>Set07-Keyb with Gain Applied.wav start</t>
+  </si>
+  <si>
+    <t>Set07-Keyb with Gain Applied.wav end</t>
+  </si>
+  <si>
+    <t>Set08-Vibr with Gain Applied.wav start</t>
+  </si>
+  <si>
+    <t>Set08-Vibr with Gain Applied.wav end</t>
+  </si>
+  <si>
+    <t>Set08-Harm with Gain Applied.wav start</t>
+  </si>
+  <si>
+    <t>Set08-Harm with Gain Applied.wav end</t>
+  </si>
+  <si>
+    <t>Set08-Keyb with Gain Applied.wav start</t>
+  </si>
+  <si>
+    <t>Set08-Keyb with Gain Applied.wav end</t>
+  </si>
+  <si>
+    <t>Set09-Vibr with Gain Applied.wav start</t>
+  </si>
+  <si>
+    <t>Set09-Vibr with Gain Applied.wav end</t>
+  </si>
+  <si>
+    <t>Set09-Harm with Gain Applied.wav start</t>
+  </si>
+  <si>
+    <t>Set09-Harm with Gain Applied.wav end</t>
+  </si>
+  <si>
+    <t>Set09-Keyb with Gain Applied.wav start</t>
+  </si>
+  <si>
+    <t>Set09-Keyb with Gain Applied.wav end</t>
+  </si>
+  <si>
+    <t>Set10-Vibr with Gain Applied.wav start</t>
+  </si>
+  <si>
+    <t>Set10-Vibr with Gain Applied.wav end</t>
+  </si>
+  <si>
+    <t>Set10-Harm with Gain Applied.wav start</t>
+  </si>
+  <si>
+    <t>Set10-Harm with Gain Applied.wav end</t>
+  </si>
+  <si>
+    <t>Set10-Keyb with Gain Applied.wav start</t>
+  </si>
+  <si>
+    <t>Set10-Keyb with Gain Applied.wav end</t>
+  </si>
+  <si>
+    <t>Set11-Vibr with Gain Applied.wav start</t>
+  </si>
+  <si>
+    <t>Set11-Vibr with Gain Applied.wav end</t>
+  </si>
+  <si>
+    <t>Set11-Harm with Gain Applied.wav start</t>
+  </si>
+  <si>
+    <t>Set11-Harm with Gain Applied.wav end</t>
+  </si>
+  <si>
+    <t>Set11-Keyb with Gain Applied.wav start</t>
+  </si>
+  <si>
+    <t>Set11-Keyb with Gain Applied.wav end</t>
+  </si>
+  <si>
+    <t>Set12-Vibr with Gain Applied.wav start</t>
+  </si>
+  <si>
+    <t>Set12-Vibr with Gain Applied.wav end</t>
+  </si>
+  <si>
+    <t>Set12-Harm with Gain Applied.wav start</t>
+  </si>
+  <si>
+    <t>Set12-Harm with Gain Applied.wav end</t>
+  </si>
+  <si>
+    <t>Set12-Keyb with Gain Applied.wav start</t>
+  </si>
+  <si>
+    <t>Set12-Keyb with Gain Applied.wav end</t>
+  </si>
+  <si>
+    <t>Vibr oddball - Keyb attended</t>
+  </si>
+  <si>
+    <t>Vibr oddball - Harm attended</t>
+  </si>
+  <si>
+    <t>Keyb oddball - Harm attended</t>
+  </si>
+  <si>
+    <t>Harm oddball - Vibr attended</t>
+  </si>
+  <si>
+    <t>Harm oddball - Keyb attended</t>
+  </si>
+  <si>
+    <t>Keyb oddball - Vibr attended</t>
   </si>
 </sst>
 </file>
@@ -1090,7 +1099,7 @@
   <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1104,28 +1113,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>151</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>152</v>
+        <v>74</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>154</v>
+        <v>76</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -1136,23 +1145,23 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>161</v>
+        <v>80</v>
       </c>
       <c r="D2">
         <f>B2+72</f>
         <v>73</v>
       </c>
       <c r="E2" t="s">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="F2">
         <v>145</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="H2">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -1163,23 +1172,23 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D66" si="0">B3+72</f>
         <v>74</v>
       </c>
       <c r="E3" t="s">
-        <v>159</v>
+        <v>231</v>
       </c>
       <c r="F3">
         <v>146</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>153</v>
       </c>
       <c r="H3">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1190,23 +1199,23 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>163</v>
+        <v>82</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="E4" t="s">
-        <v>155</v>
+        <v>230</v>
       </c>
       <c r="F4">
         <v>147</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="H4">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -1217,23 +1226,23 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>164</v>
+        <v>83</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
       <c r="E5" t="s">
-        <v>156</v>
+        <v>233</v>
       </c>
       <c r="F5">
         <v>148</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>155</v>
       </c>
       <c r="H5">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -1244,23 +1253,23 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>165</v>
+        <v>84</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
       <c r="E6" t="s">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="F6">
         <v>149</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>156</v>
       </c>
       <c r="H6">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -1271,23 +1280,23 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>166</v>
+        <v>85</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
       <c r="E7" t="s">
-        <v>158</v>
+        <v>234</v>
       </c>
       <c r="F7">
         <v>150</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>157</v>
       </c>
       <c r="H7">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -1298,11 +1307,17 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>167</v>
+        <v>86</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
         <v>79</v>
+      </c>
+      <c r="E8" t="s">
+        <v>235</v>
+      </c>
+      <c r="F8">
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -1313,11 +1328,17 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>168</v>
+        <v>87</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
         <v>80</v>
+      </c>
+      <c r="E9" t="s">
+        <v>232</v>
+      </c>
+      <c r="F9">
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -1328,11 +1349,17 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>169</v>
+        <v>88</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
         <v>81</v>
+      </c>
+      <c r="E10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10">
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -1343,7 +1370,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>170</v>
+        <v>89</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
@@ -1358,7 +1385,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>171</v>
+        <v>90</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
@@ -1373,7 +1400,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>172</v>
+        <v>91</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
@@ -1382,13 +1409,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B14">
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>173</v>
+        <v>92</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
@@ -1397,13 +1424,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B15">
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>174</v>
+        <v>93</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
@@ -1412,13 +1439,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B16">
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>175</v>
+        <v>94</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
@@ -1427,13 +1454,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B17">
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>176</v>
+        <v>95</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
@@ -1442,13 +1469,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B18">
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>177</v>
+        <v>96</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
@@ -1457,13 +1484,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B19">
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>178</v>
+        <v>97</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
@@ -1472,13 +1499,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B20">
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>179</v>
+        <v>98</v>
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
@@ -1487,13 +1514,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B21">
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>180</v>
+        <v>99</v>
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
@@ -1502,13 +1529,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B22">
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>181</v>
+        <v>100</v>
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
@@ -1517,13 +1544,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B23">
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>182</v>
+        <v>101</v>
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
@@ -1532,13 +1559,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B24">
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
@@ -1547,13 +1574,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B25">
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>184</v>
+        <v>103</v>
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
@@ -1562,13 +1589,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B26">
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
@@ -1577,13 +1604,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B27">
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>186</v>
+        <v>105</v>
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
@@ -1592,13 +1619,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B28">
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>187</v>
+        <v>106</v>
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
@@ -1607,13 +1634,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B29">
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>188</v>
+        <v>107</v>
       </c>
       <c r="D29">
         <f t="shared" si="0"/>
@@ -1622,13 +1649,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B30">
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>189</v>
+        <v>108</v>
       </c>
       <c r="D30">
         <f t="shared" si="0"/>
@@ -1637,13 +1664,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B31">
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>190</v>
+        <v>109</v>
       </c>
       <c r="D31">
         <f t="shared" si="0"/>
@@ -1652,13 +1679,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B32">
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>191</v>
+        <v>110</v>
       </c>
       <c r="D32">
         <f t="shared" si="0"/>
@@ -1667,13 +1694,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B33">
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>192</v>
+        <v>111</v>
       </c>
       <c r="D33">
         <f t="shared" si="0"/>
@@ -1682,13 +1709,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B34">
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>193</v>
+        <v>112</v>
       </c>
       <c r="D34">
         <f t="shared" si="0"/>
@@ -1697,13 +1724,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B35">
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>194</v>
+        <v>113</v>
       </c>
       <c r="D35">
         <f t="shared" si="0"/>
@@ -1712,13 +1739,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B36">
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>195</v>
+        <v>114</v>
       </c>
       <c r="D36">
         <f t="shared" si="0"/>
@@ -1727,13 +1754,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B37">
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>196</v>
+        <v>115</v>
       </c>
       <c r="D37">
         <f t="shared" si="0"/>
@@ -1742,13 +1769,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B38">
         <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>197</v>
+        <v>116</v>
       </c>
       <c r="D38">
         <f t="shared" si="0"/>
@@ -1757,13 +1784,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B39">
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>198</v>
+        <v>117</v>
       </c>
       <c r="D39">
         <f t="shared" si="0"/>
@@ -1772,13 +1799,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B40">
         <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>199</v>
+        <v>118</v>
       </c>
       <c r="D40">
         <f t="shared" si="0"/>
@@ -1787,13 +1814,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B41">
         <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>200</v>
+        <v>119</v>
       </c>
       <c r="D41">
         <f t="shared" si="0"/>
@@ -1802,13 +1829,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B42">
         <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>201</v>
+        <v>120</v>
       </c>
       <c r="D42">
         <f t="shared" si="0"/>
@@ -1817,13 +1844,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B43">
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>202</v>
+        <v>121</v>
       </c>
       <c r="D43">
         <f t="shared" si="0"/>
@@ -1832,13 +1859,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>203</v>
+        <v>122</v>
       </c>
       <c r="D44">
         <f t="shared" si="0"/>
@@ -1847,13 +1874,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B45">
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>204</v>
+        <v>123</v>
       </c>
       <c r="D45">
         <f t="shared" si="0"/>
@@ -1862,13 +1889,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B46">
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>205</v>
+        <v>124</v>
       </c>
       <c r="D46">
         <f t="shared" si="0"/>
@@ -1877,13 +1904,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B47">
         <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>206</v>
+        <v>125</v>
       </c>
       <c r="D47">
         <f t="shared" si="0"/>
@@ -1892,13 +1919,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B48">
         <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>207</v>
+        <v>126</v>
       </c>
       <c r="D48">
         <f t="shared" si="0"/>
@@ -1907,13 +1934,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B49">
         <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>208</v>
+        <v>127</v>
       </c>
       <c r="D49">
         <f t="shared" si="0"/>
@@ -1922,13 +1949,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B50">
         <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>209</v>
+        <v>128</v>
       </c>
       <c r="D50">
         <f t="shared" si="0"/>
@@ -1937,13 +1964,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B51">
         <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>210</v>
+        <v>129</v>
       </c>
       <c r="D51">
         <f t="shared" si="0"/>
@@ -1952,13 +1979,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B52">
         <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>211</v>
+        <v>130</v>
       </c>
       <c r="D52">
         <f t="shared" si="0"/>
@@ -1967,13 +1994,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B53">
         <v>52</v>
       </c>
       <c r="C53" t="s">
-        <v>212</v>
+        <v>131</v>
       </c>
       <c r="D53">
         <f t="shared" si="0"/>
@@ -1982,13 +2009,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B54">
         <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>213</v>
+        <v>132</v>
       </c>
       <c r="D54">
         <f t="shared" si="0"/>
@@ -1997,13 +2024,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B55">
         <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>214</v>
+        <v>133</v>
       </c>
       <c r="D55">
         <f t="shared" si="0"/>
@@ -2012,13 +2039,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B56">
         <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>215</v>
+        <v>134</v>
       </c>
       <c r="D56">
         <f t="shared" si="0"/>
@@ -2027,13 +2054,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B57">
         <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>216</v>
+        <v>135</v>
       </c>
       <c r="D57">
         <f t="shared" si="0"/>
@@ -2042,13 +2069,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B58">
         <v>57</v>
       </c>
       <c r="C58" t="s">
-        <v>217</v>
+        <v>136</v>
       </c>
       <c r="D58">
         <f t="shared" si="0"/>
@@ -2057,13 +2084,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B59">
         <v>58</v>
       </c>
       <c r="C59" t="s">
-        <v>218</v>
+        <v>137</v>
       </c>
       <c r="D59">
         <f t="shared" si="0"/>
@@ -2072,13 +2099,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B60">
         <v>59</v>
       </c>
       <c r="C60" t="s">
-        <v>219</v>
+        <v>138</v>
       </c>
       <c r="D60">
         <f t="shared" si="0"/>
@@ -2087,13 +2114,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B61">
         <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>220</v>
+        <v>139</v>
       </c>
       <c r="D61">
         <f t="shared" si="0"/>
@@ -2102,13 +2129,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B62">
         <v>61</v>
       </c>
       <c r="C62" t="s">
-        <v>221</v>
+        <v>140</v>
       </c>
       <c r="D62">
         <f t="shared" si="0"/>
@@ -2117,13 +2144,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B63">
         <v>62</v>
       </c>
       <c r="C63" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="D63">
         <f t="shared" si="0"/>
@@ -2132,13 +2159,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B64">
         <v>63</v>
       </c>
       <c r="C64" t="s">
-        <v>223</v>
+        <v>142</v>
       </c>
       <c r="D64">
         <f t="shared" si="0"/>
@@ -2147,13 +2174,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B65">
         <v>64</v>
       </c>
       <c r="C65" t="s">
-        <v>224</v>
+        <v>143</v>
       </c>
       <c r="D65">
         <f t="shared" si="0"/>
@@ -2162,13 +2189,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B66">
         <v>65</v>
       </c>
       <c r="C66" t="s">
-        <v>225</v>
+        <v>144</v>
       </c>
       <c r="D66">
         <f t="shared" si="0"/>
@@ -2177,13 +2204,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B67">
         <v>66</v>
       </c>
       <c r="C67" t="s">
-        <v>226</v>
+        <v>145</v>
       </c>
       <c r="D67">
         <f t="shared" ref="D67:D73" si="1">B67+72</f>
@@ -2192,13 +2219,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B68">
         <v>67</v>
       </c>
       <c r="C68" t="s">
-        <v>227</v>
+        <v>146</v>
       </c>
       <c r="D68">
         <f t="shared" si="1"/>
@@ -2207,13 +2234,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B69">
         <v>68</v>
       </c>
       <c r="C69" t="s">
-        <v>228</v>
+        <v>147</v>
       </c>
       <c r="D69">
         <f t="shared" si="1"/>
@@ -2222,13 +2249,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B70">
         <v>69</v>
       </c>
       <c r="C70" t="s">
-        <v>229</v>
+        <v>148</v>
       </c>
       <c r="D70">
         <f t="shared" si="1"/>
@@ -2237,13 +2264,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B71">
         <v>70</v>
       </c>
       <c r="C71" t="s">
-        <v>230</v>
+        <v>149</v>
       </c>
       <c r="D71">
         <f t="shared" si="1"/>
@@ -2252,13 +2279,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B72">
         <v>71</v>
       </c>
       <c r="C72" t="s">
-        <v>231</v>
+        <v>150</v>
       </c>
       <c r="D72">
         <f t="shared" si="1"/>
@@ -2267,13 +2294,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B73">
         <v>72</v>
       </c>
       <c r="C73" t="s">
-        <v>232</v>
+        <v>151</v>
       </c>
       <c r="D73">
         <f t="shared" si="1"/>
@@ -2289,7 +2316,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0193290D-B83B-4D3E-A8F6-1CFB7B4CDB9E}">
   <dimension ref="A1:A72"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A72"/>
     </sheetView>
   </sheetViews>
@@ -2297,362 +2324,362 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>129</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>130</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>132</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>107</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>108</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>86</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>133</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>134</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>109</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>110</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>87</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>88</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>135</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>136</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>111</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>112</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>89</v>
+        <v>188</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>90</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>137</v>
+        <v>190</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>138</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>113</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>114</v>
+        <v>193</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>91</v>
+        <v>194</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>92</v>
+        <v>195</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>139</v>
+        <v>196</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>140</v>
+        <v>197</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>115</v>
+        <v>198</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>116</v>
+        <v>199</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>93</v>
+        <v>200</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>94</v>
+        <v>201</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>141</v>
+        <v>202</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>142</v>
+        <v>203</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>117</v>
+        <v>204</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>118</v>
+        <v>205</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>95</v>
+        <v>206</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>96</v>
+        <v>207</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>143</v>
+        <v>208</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>144</v>
+        <v>209</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>119</v>
+        <v>210</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>120</v>
+        <v>211</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>97</v>
+        <v>212</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>98</v>
+        <v>213</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>145</v>
+        <v>214</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>146</v>
+        <v>215</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>121</v>
+        <v>216</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>122</v>
+        <v>217</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>99</v>
+        <v>218</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>100</v>
+        <v>219</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>147</v>
+        <v>220</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>148</v>
+        <v>221</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>123</v>
+        <v>222</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>124</v>
+        <v>223</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>101</v>
+        <v>224</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>102</v>
+        <v>225</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>149</v>
+        <v>226</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>150</v>
+        <v>227</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>125</v>
+        <v>228</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>126</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/Trigger Generation (Not Inc P2 Trial Trigs)/Trigger Config.xlsx
+++ b/Trigger Generation (Not Inc P2 Trial Trigs)/Trigger Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjwin\OneDrive - Queen Mary, University of London\Documents\Music Interestingness in the Brain\Par 22-9-23\Trigger Generation (Not Inc P2 Trial Trigs)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488534E0-CCDF-42EC-8779-06BEBE97D7A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22E8D61-8C2A-44FE-A456-8ACF75A56765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7E7BB4F4-9053-422F-95B5-0ADBAD2C553C}"/>
   </bookViews>
@@ -270,15 +270,6 @@
     <t>Location (Oddballs)</t>
   </si>
   <si>
-    <t>Harm oddball - Harm attended</t>
-  </si>
-  <si>
-    <t>Keyb oddball - Keyb attended</t>
-  </si>
-  <si>
-    <t>Vibr oddball - Vibr attended</t>
-  </si>
-  <si>
     <t>Set01-Oddball Test Mix-Vibr Attended.wav start</t>
   </si>
   <si>
@@ -729,22 +720,31 @@
     <t>Set12-Keyb with Gain Applied.wav end</t>
   </si>
   <si>
-    <t>Vibr oddball - Keyb attended</t>
-  </si>
-  <si>
-    <t>Vibr oddball - Harm attended</t>
-  </si>
-  <si>
-    <t>Keyb oddball - Harm attended</t>
-  </si>
-  <si>
-    <t>Harm oddball - Vibr attended</t>
-  </si>
-  <si>
-    <t>Harm oddball - Keyb attended</t>
-  </si>
-  <si>
-    <t>Keyb oddball - Vibr attended</t>
+    <t>Vibr attended - Vibr oddball</t>
+  </si>
+  <si>
+    <t>Harm attended - Harm oddball</t>
+  </si>
+  <si>
+    <t>Keyb attended - Keyb oddball</t>
+  </si>
+  <si>
+    <t>Vibr attended - Harm oddball</t>
+  </si>
+  <si>
+    <t>Vibr attended - Keyb oddball</t>
+  </si>
+  <si>
+    <t>Harm attended - Vibr oddball</t>
+  </si>
+  <si>
+    <t>Harm attended - Keyb oddball</t>
+  </si>
+  <si>
+    <t>Keyb attended - Vibr oddball</t>
+  </si>
+  <si>
+    <t>Keyb attended - Harm oddball</t>
   </si>
 </sst>
 </file>
@@ -1099,7 +1099,7 @@
   <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1145,20 +1145,20 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D2">
         <f>B2+72</f>
         <v>73</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>227</v>
       </c>
       <c r="F2">
         <v>145</v>
       </c>
       <c r="G2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H2">
         <v>154</v>
@@ -1172,20 +1172,20 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D66" si="0">B3+72</f>
         <v>74</v>
       </c>
       <c r="E3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F3">
         <v>146</v>
       </c>
       <c r="G3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H3">
         <v>155</v>
@@ -1199,20 +1199,20 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="E4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F4">
         <v>147</v>
       </c>
       <c r="G4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H4">
         <v>156</v>
@@ -1226,20 +1226,20 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
       <c r="E5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F5">
         <v>148</v>
       </c>
       <c r="G5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H5">
         <v>157</v>
@@ -1253,20 +1253,20 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>228</v>
       </c>
       <c r="F6">
         <v>149</v>
       </c>
       <c r="G6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H6">
         <v>158</v>
@@ -1280,20 +1280,20 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
       <c r="E7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F7">
         <v>150</v>
       </c>
       <c r="G7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H7">
         <v>159</v>
@@ -1307,14 +1307,14 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
         <v>79</v>
       </c>
       <c r="E8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F8">
         <v>151</v>
@@ -1328,14 +1328,14 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="E9" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F9">
         <v>152</v>
@@ -1349,14 +1349,14 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
       <c r="E10" t="s">
-        <v>78</v>
+        <v>229</v>
       </c>
       <c r="F10">
         <v>153</v>
@@ -1370,7 +1370,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
@@ -1385,7 +1385,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
@@ -1400,7 +1400,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
@@ -1415,7 +1415,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
@@ -1430,7 +1430,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
@@ -1445,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
@@ -1460,7 +1460,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
@@ -1475,7 +1475,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
@@ -1490,7 +1490,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
@@ -1505,7 +1505,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
@@ -1520,7 +1520,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
@@ -1535,7 +1535,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
@@ -1550,7 +1550,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
@@ -1565,7 +1565,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
@@ -1580,7 +1580,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
@@ -1595,7 +1595,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
@@ -1610,7 +1610,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
@@ -1625,7 +1625,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
@@ -1640,7 +1640,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D29">
         <f t="shared" si="0"/>
@@ -1655,7 +1655,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D30">
         <f t="shared" si="0"/>
@@ -1670,7 +1670,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D31">
         <f t="shared" si="0"/>
@@ -1685,7 +1685,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D32">
         <f t="shared" si="0"/>
@@ -1700,7 +1700,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D33">
         <f t="shared" si="0"/>
@@ -1715,7 +1715,7 @@
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D34">
         <f t="shared" si="0"/>
@@ -1730,7 +1730,7 @@
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D35">
         <f t="shared" si="0"/>
@@ -1745,7 +1745,7 @@
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D36">
         <f t="shared" si="0"/>
@@ -1760,7 +1760,7 @@
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D37">
         <f t="shared" si="0"/>
@@ -1775,7 +1775,7 @@
         <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D38">
         <f t="shared" si="0"/>
@@ -1790,7 +1790,7 @@
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D39">
         <f t="shared" si="0"/>
@@ -1805,7 +1805,7 @@
         <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D40">
         <f t="shared" si="0"/>
@@ -1820,7 +1820,7 @@
         <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D41">
         <f t="shared" si="0"/>
@@ -1835,7 +1835,7 @@
         <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D42">
         <f t="shared" si="0"/>
@@ -1850,7 +1850,7 @@
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D43">
         <f t="shared" si="0"/>
@@ -1865,7 +1865,7 @@
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D44">
         <f t="shared" si="0"/>
@@ -1880,7 +1880,7 @@
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D45">
         <f t="shared" si="0"/>
@@ -1895,7 +1895,7 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D46">
         <f t="shared" si="0"/>
@@ -1910,7 +1910,7 @@
         <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D47">
         <f t="shared" si="0"/>
@@ -1925,7 +1925,7 @@
         <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D48">
         <f t="shared" si="0"/>
@@ -1940,7 +1940,7 @@
         <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D49">
         <f t="shared" si="0"/>
@@ -1955,7 +1955,7 @@
         <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D50">
         <f t="shared" si="0"/>
@@ -1970,7 +1970,7 @@
         <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D51">
         <f t="shared" si="0"/>
@@ -1985,7 +1985,7 @@
         <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D52">
         <f t="shared" si="0"/>
@@ -2000,7 +2000,7 @@
         <v>52</v>
       </c>
       <c r="C53" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D53">
         <f t="shared" si="0"/>
@@ -2015,7 +2015,7 @@
         <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D54">
         <f t="shared" si="0"/>
@@ -2030,7 +2030,7 @@
         <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D55">
         <f t="shared" si="0"/>
@@ -2045,7 +2045,7 @@
         <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D56">
         <f t="shared" si="0"/>
@@ -2060,7 +2060,7 @@
         <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D57">
         <f t="shared" si="0"/>
@@ -2075,7 +2075,7 @@
         <v>57</v>
       </c>
       <c r="C58" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D58">
         <f t="shared" si="0"/>
@@ -2090,7 +2090,7 @@
         <v>58</v>
       </c>
       <c r="C59" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D59">
         <f t="shared" si="0"/>
@@ -2105,7 +2105,7 @@
         <v>59</v>
       </c>
       <c r="C60" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D60">
         <f t="shared" si="0"/>
@@ -2120,7 +2120,7 @@
         <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D61">
         <f t="shared" si="0"/>
@@ -2135,7 +2135,7 @@
         <v>61</v>
       </c>
       <c r="C62" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D62">
         <f t="shared" si="0"/>
@@ -2150,7 +2150,7 @@
         <v>62</v>
       </c>
       <c r="C63" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D63">
         <f t="shared" si="0"/>
@@ -2165,7 +2165,7 @@
         <v>63</v>
       </c>
       <c r="C64" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D64">
         <f t="shared" si="0"/>
@@ -2180,7 +2180,7 @@
         <v>64</v>
       </c>
       <c r="C65" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D65">
         <f t="shared" si="0"/>
@@ -2195,7 +2195,7 @@
         <v>65</v>
       </c>
       <c r="C66" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D66">
         <f t="shared" si="0"/>
@@ -2210,7 +2210,7 @@
         <v>66</v>
       </c>
       <c r="C67" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D67">
         <f t="shared" ref="D67:D73" si="1">B67+72</f>
@@ -2225,7 +2225,7 @@
         <v>67</v>
       </c>
       <c r="C68" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D68">
         <f t="shared" si="1"/>
@@ -2240,7 +2240,7 @@
         <v>68</v>
       </c>
       <c r="C69" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D69">
         <f t="shared" si="1"/>
@@ -2255,7 +2255,7 @@
         <v>69</v>
       </c>
       <c r="C70" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D70">
         <f t="shared" si="1"/>
@@ -2270,7 +2270,7 @@
         <v>70</v>
       </c>
       <c r="C71" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D71">
         <f t="shared" si="1"/>
@@ -2285,7 +2285,7 @@
         <v>71</v>
       </c>
       <c r="C72" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D72">
         <f t="shared" si="1"/>
@@ -2300,7 +2300,7 @@
         <v>72</v>
       </c>
       <c r="C73" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D73">
         <f t="shared" si="1"/>
@@ -2324,362 +2324,362 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
